--- a/data/positive_signals/Indirectly connected (A-X-B) - Sulfamethoxazole - Bullous eruptions.xlsx
+++ b/data/positive_signals/Indirectly connected (A-X-B) - Sulfamethoxazole - Bullous eruptions.xlsx
@@ -173,6 +173,42 @@
     <t>Chemicals &amp; Drugs</t>
   </si>
   <si>
+    <t>4027653</t>
+  </si>
+  <si>
+    <t>patients</t>
+  </si>
+  <si>
+    <t>Living Beings</t>
+  </si>
+  <si>
+    <t>3763631</t>
+  </si>
+  <si>
+    <t>bullous eruption</t>
+  </si>
+  <si>
+    <t>Disorders</t>
+  </si>
+  <si>
+    <t>51261997</t>
+  </si>
+  <si>
+    <t>treats</t>
+  </si>
+  <si>
+    <t>60545053</t>
+  </si>
+  <si>
+    <t>is administered to</t>
+  </si>
+  <si>
+    <t>51266807</t>
+  </si>
+  <si>
+    <t>is process of</t>
+  </si>
+  <si>
     <t>5648228</t>
   </si>
   <si>
@@ -182,49 +218,139 @@
     <t>Procedures</t>
   </si>
   <si>
-    <t>3763631</t>
-  </si>
-  <si>
-    <t>bullous eruption</t>
-  </si>
-  <si>
-    <t>Disorders</t>
-  </si>
-  <si>
-    <t>117584901</t>
+    <t>51376121</t>
   </si>
   <si>
     <t>uses</t>
   </si>
   <si>
-    <t>132508592</t>
-  </si>
-  <si>
-    <t>treats</t>
-  </si>
-  <si>
-    <t>4027653</t>
-  </si>
-  <si>
-    <t>patients</t>
-  </si>
-  <si>
-    <t>Living Beings</t>
-  </si>
-  <si>
-    <t>117453876</t>
-  </si>
-  <si>
-    <t>125563018</t>
-  </si>
-  <si>
-    <t>is administered to</t>
-  </si>
-  <si>
-    <t>117459011</t>
-  </si>
-  <si>
-    <t>is process of</t>
+    <t>66163822</t>
+  </si>
+  <si>
+    <t>301179</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>53085852</t>
+  </si>
+  <si>
+    <t>51334156</t>
+  </si>
+  <si>
+    <t>69987932</t>
+  </si>
+  <si>
+    <t>5308239</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>59989691</t>
+  </si>
+  <si>
+    <t>54216638</t>
+  </si>
+  <si>
+    <t>684679</t>
+  </si>
+  <si>
+    <t>infant, newborn</t>
+  </si>
+  <si>
+    <t>57516014</t>
+  </si>
+  <si>
+    <t>55517824</t>
+  </si>
+  <si>
+    <t>650553</t>
+  </si>
+  <si>
+    <t>infant</t>
+  </si>
+  <si>
+    <t>131616064</t>
+  </si>
+  <si>
+    <t>78122755</t>
+  </si>
+  <si>
+    <t>63829</t>
+  </si>
+  <si>
+    <t>enzyme-linked immunosorbent assay</t>
+  </si>
+  <si>
+    <t>81582593</t>
+  </si>
+  <si>
+    <t>124711841</t>
+  </si>
+  <si>
+    <t>diagnoses</t>
+  </si>
+  <si>
+    <t>590091</t>
+  </si>
+  <si>
+    <t>male population group</t>
+  </si>
+  <si>
+    <t>54436550</t>
+  </si>
+  <si>
+    <t>88296207</t>
+  </si>
+  <si>
+    <t>99578394</t>
+  </si>
+  <si>
+    <t>5108168</t>
+  </si>
+  <si>
+    <t>penicillin g</t>
+  </si>
+  <si>
+    <t>59210509</t>
+  </si>
+  <si>
+    <t>interacts with</t>
+  </si>
+  <si>
+    <t>75949843</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>4042224</t>
+  </si>
+  <si>
+    <t>dapsone</t>
+  </si>
+  <si>
+    <t>105113987</t>
+  </si>
+  <si>
+    <t>is compared with</t>
+  </si>
+  <si>
+    <t>114043056</t>
+  </si>
+  <si>
+    <t>4034949</t>
+  </si>
+  <si>
+    <t>diagnosis</t>
+  </si>
+  <si>
+    <t>78640522</t>
+  </si>
+  <si>
+    <t>127281809</t>
   </si>
   <si>
     <t>4033983</t>
@@ -233,115 +359,55 @@
     <t>pharmaceutical preparations</t>
   </si>
   <si>
-    <t>118478967</t>
+    <t>88605184</t>
+  </si>
+  <si>
+    <t>113813159</t>
+  </si>
+  <si>
+    <t>is lower than</t>
+  </si>
+  <si>
+    <t>75838169</t>
+  </si>
+  <si>
+    <t>stimulates</t>
+  </si>
+  <si>
+    <t>89000729</t>
+  </si>
+  <si>
+    <t>is the same as</t>
+  </si>
+  <si>
+    <t>52244318</t>
   </si>
   <si>
     <t>is a</t>
   </si>
   <si>
-    <t>155176937</t>
-  </si>
-  <si>
-    <t>is compared with</t>
-  </si>
-  <si>
-    <t>119150923</t>
+    <t>88986362</t>
+  </si>
+  <si>
+    <t>65929430</t>
+  </si>
+  <si>
+    <t>52826576</t>
   </si>
   <si>
     <t>coexists with</t>
   </si>
   <si>
-    <t>154768861</t>
-  </si>
-  <si>
-    <t>interacts with</t>
-  </si>
-  <si>
-    <t>180015933</t>
-  </si>
-  <si>
-    <t>is lower than</t>
-  </si>
-  <si>
-    <t>124032609</t>
-  </si>
-  <si>
-    <t>155191218</t>
-  </si>
-  <si>
-    <t>is the same as</t>
-  </si>
-  <si>
-    <t>178561777</t>
+    <t>112344727</t>
   </si>
   <si>
     <t>does not interact with</t>
   </si>
   <si>
-    <t>142275077</t>
-  </si>
-  <si>
-    <t>stimulates</t>
-  </si>
-  <si>
-    <t>132285199</t>
-  </si>
-  <si>
-    <t>142812784</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>5308239</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>126382155</t>
-  </si>
-  <si>
-    <t>120547375</t>
-  </si>
-  <si>
-    <t>301179</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>119351229</t>
-  </si>
-  <si>
-    <t>117533734</t>
-  </si>
-  <si>
-    <t>136332181</t>
-  </si>
-  <si>
-    <t>684679</t>
-  </si>
-  <si>
-    <t>infant, newborn</t>
-  </si>
-  <si>
-    <t>123923999</t>
-  </si>
-  <si>
-    <t>122056665</t>
-  </si>
-  <si>
-    <t>650553</t>
-  </si>
-  <si>
-    <t>infant</t>
-  </si>
-  <si>
-    <t>197817101</t>
-  </si>
-  <si>
-    <t>144464660</t>
+    <t>57667654</t>
+  </si>
+  <si>
+    <t>76350720</t>
   </si>
   <si>
     <t>4028721</t>
@@ -350,82 +416,16 @@
     <t>nalidixic acid</t>
   </si>
   <si>
-    <t>119785023</t>
-  </si>
-  <si>
-    <t>129113676</t>
-  </si>
-  <si>
-    <t>148041613</t>
-  </si>
-  <si>
-    <t>119675720</t>
-  </si>
-  <si>
-    <t>63829</t>
-  </si>
-  <si>
-    <t>enzyme-linked immunosorbent assay</t>
-  </si>
-  <si>
-    <t>147962975</t>
-  </si>
-  <si>
-    <t>190903160</t>
-  </si>
-  <si>
-    <t>diagnoses</t>
-  </si>
-  <si>
-    <t>590091</t>
-  </si>
-  <si>
-    <t>male population group</t>
-  </si>
-  <si>
-    <t>120787674</t>
-  </si>
-  <si>
-    <t>154566727</t>
-  </si>
-  <si>
-    <t>165773837</t>
-  </si>
-  <si>
-    <t>5108168</t>
-  </si>
-  <si>
-    <t>penicillin g</t>
-  </si>
-  <si>
-    <t>125613537</t>
-  </si>
-  <si>
-    <t>142386444</t>
-  </si>
-  <si>
-    <t>4042224</t>
-  </si>
-  <si>
-    <t>dapsone</t>
-  </si>
-  <si>
-    <t>171310226</t>
-  </si>
-  <si>
-    <t>180245931</t>
-  </si>
-  <si>
-    <t>4034949</t>
-  </si>
-  <si>
-    <t>diagnosis</t>
-  </si>
-  <si>
-    <t>142897320</t>
-  </si>
-  <si>
-    <t>193498222</t>
+    <t>62697889</t>
+  </si>
+  <si>
+    <t>53515837</t>
+  </si>
+  <si>
+    <t>81661361</t>
+  </si>
+  <si>
+    <t>53339440</t>
   </si>
   <si>
     <t>3113988</t>
@@ -434,10 +434,10 @@
     <t>hypersensitivity disease</t>
   </si>
   <si>
-    <t>176950649</t>
-  </si>
-  <si>
-    <t>183056067</t>
+    <t>110826650</t>
+  </si>
+  <si>
+    <t>116859123</t>
   </si>
 </sst>
 </file>
@@ -642,7 +642,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>74.0</v>
+        <v>99.0</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -683,10 +683,16 @@
       <c r="N2" t="s">
         <v>62</v>
       </c>
+      <c r="O2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>56.0</v>
+        <v>74.0</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -698,13 +704,13 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H3" t="s">
         <v>56</v>
@@ -716,22 +722,16 @@
         <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O3" t="s">
-        <v>69</v>
-      </c>
-      <c r="P3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -754,7 +754,7 @@
         <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
         <v>56</v>
@@ -769,67 +769,19 @@
         <v>73</v>
       </c>
       <c r="L4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" t="s">
         <v>74</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
         <v>75</v>
       </c>
-      <c r="N4" t="s">
-        <v>76</v>
-      </c>
-      <c r="O4" t="s">
-        <v>77</v>
-      </c>
       <c r="P4" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>79</v>
-      </c>
-      <c r="R4" t="s">
-        <v>80</v>
-      </c>
-      <c r="S4" t="s">
-        <v>81</v>
-      </c>
-      <c r="T4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U4" t="s">
-        <v>83</v>
-      </c>
-      <c r="V4" t="s">
-        <v>78</v>
-      </c>
-      <c r="W4" t="s">
-        <v>84</v>
-      </c>
-      <c r="X4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -846,13 +798,13 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
         <v>56</v>
@@ -864,21 +816,21 @@
         <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -890,13 +842,13 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
         <v>56</v>
@@ -908,22 +860,16 @@
         <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M6" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="N6" t="s">
-        <v>68</v>
-      </c>
-      <c r="O6" t="s">
-        <v>101</v>
-      </c>
-      <c r="P6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
@@ -940,13 +886,13 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
         <v>56</v>
@@ -958,21 +904,21 @@
         <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -984,13 +930,13 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H8" t="s">
         <v>56</v>
@@ -1002,21 +948,21 @@
         <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M8" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="N8" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
@@ -1028,13 +974,13 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
         <v>56</v>
@@ -1046,28 +992,22 @@
         <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="N9" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>115</v>
-      </c>
-      <c r="R9" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -1084,13 +1024,13 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
         <v>56</v>
@@ -1102,16 +1042,16 @@
         <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M10" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="N10" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
@@ -1128,13 +1068,13 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
         <v>56</v>
@@ -1146,22 +1086,16 @@
         <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="M11" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="N11" t="s">
-        <v>68</v>
-      </c>
-      <c r="O11" t="s">
-        <v>125</v>
-      </c>
-      <c r="P11" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -1178,13 +1112,13 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
         <v>56</v>
@@ -1196,16 +1130,16 @@
         <v>58</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="M12" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="N12" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -1222,10 +1156,10 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="G13" t="s">
         <v>52</v>
@@ -1240,16 +1174,70 @@
         <v>58</v>
       </c>
       <c r="K13" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="L13" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="M13" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="N13" t="s">
-        <v>62</v>
+        <v>117</v>
+      </c>
+      <c r="O13" t="s">
+        <v>118</v>
+      </c>
+      <c r="P13" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>120</v>
+      </c>
+      <c r="R13" t="s">
+        <v>121</v>
+      </c>
+      <c r="S13" t="s">
+        <v>122</v>
+      </c>
+      <c r="T13" t="s">
+        <v>123</v>
+      </c>
+      <c r="U13" t="s">
+        <v>124</v>
+      </c>
+      <c r="V13" t="s">
+        <v>107</v>
+      </c>
+      <c r="W13" t="s">
+        <v>125</v>
+      </c>
+      <c r="X13" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="14">
@@ -1266,13 +1254,13 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
         <v>56</v>
@@ -1284,16 +1272,28 @@
         <v>58</v>
       </c>
       <c r="K14" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14" t="s">
+        <v>101</v>
+      </c>
+      <c r="M14" t="s">
+        <v>135</v>
+      </c>
+      <c r="N14" t="s">
+        <v>127</v>
+      </c>
+      <c r="O14" t="s">
         <v>136</v>
       </c>
-      <c r="L14" t="s">
-        <v>60</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="P14" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q14" t="s">
         <v>137</v>
       </c>
-      <c r="N14" t="s">
-        <v>62</v>
+      <c r="R14" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="15">
@@ -1331,13 +1331,13 @@
         <v>140</v>
       </c>
       <c r="L15" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="M15" t="s">
         <v>141</v>
       </c>
       <c r="N15" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
